--- a/QGIS/DMIstationsUpdated.xlsx
+++ b/QGIS/DMIstationsUpdated.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{E0208699-8860-6E46-964A-967B30F80C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3868D0C5-C187-7848-B477-B6210B71AB06}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="31500" xr2:uid="{09D25A13-AD50-5E49-86AF-AA3EC1DA8A69}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{09D25A13-AD50-5E49-86AF-AA3EC1DA8A69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2373,8 +2373,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BN545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
